--- a/AfDD_2022_Annex_Table_Tab10.xlsx
+++ b/AfDD_2022_Annex_Table_Tab10.xlsx
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="179">
-  <si>
-    <t>Back to Contents</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="178">
   <si>
     <t>Table 10: Sectoral breakdown of the economy</t>
   </si>
@@ -1403,11 +1400,9 @@
   <sheetData>
     <row r="1" spans="1:16" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
@@ -1425,58 +1420,58 @@
     </row>
     <row r="2" spans="1:16" ht="90.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="13">
         <v>25.0903030417286</v>
@@ -1523,10 +1518,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="C4" s="16">
         <v>0</v>
@@ -1573,10 +1568,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>21</v>
       </c>
       <c r="C5" s="20">
         <v>0</v>
@@ -1623,10 +1618,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>23</v>
       </c>
       <c r="C6" s="20">
         <v>0</v>
@@ -1673,10 +1668,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="C7" s="20">
         <v>0</v>
@@ -1723,10 +1718,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>27</v>
       </c>
       <c r="C8" s="20">
         <v>0.14873620206801999</v>
@@ -1773,10 +1768,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="C9" s="20">
         <v>0</v>
@@ -1823,10 +1818,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="C10" s="20">
         <v>4.4740084191000002E-3</v>
@@ -1873,10 +1868,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="C11" s="16">
         <v>0</v>
@@ -1923,10 +1918,10 @@
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="C12" s="23">
         <v>0</v>
@@ -1973,10 +1968,10 @@
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>37</v>
       </c>
       <c r="C13" s="27">
         <v>4.2467176578698398</v>
@@ -2023,10 +2018,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>39</v>
       </c>
       <c r="C14" s="20">
         <v>0</v>
@@ -2073,10 +2068,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>41</v>
       </c>
       <c r="C15" s="20">
         <v>2.80179480883054</v>
@@ -2123,10 +2118,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="C16" s="20">
         <v>0</v>
@@ -2173,10 +2168,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>45</v>
       </c>
       <c r="C17" s="13">
         <v>17.786699997359399</v>
@@ -2223,10 +2218,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>47</v>
       </c>
       <c r="C18" s="13">
         <v>43.449576811241798</v>
@@ -2273,10 +2268,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="C19" s="16">
         <v>0.74870783289039999</v>
@@ -2323,10 +2318,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>50</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>51</v>
       </c>
       <c r="C20" s="13">
         <v>22.2649239155296</v>
@@ -2373,10 +2368,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>52</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>53</v>
       </c>
       <c r="C21" s="13">
         <v>18.801320629744001</v>
@@ -2423,10 +2418,10 @@
     </row>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="C22" s="20">
         <v>0</v>
@@ -2473,10 +2468,10 @@
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="27">
         <v>9.2753485186298192</v>
@@ -2523,10 +2518,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>58</v>
       </c>
       <c r="C24" s="20">
         <v>0</v>
@@ -2573,10 +2568,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>60</v>
       </c>
       <c r="C25" s="20">
         <v>0</v>
@@ -2623,19 +2618,19 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="C26" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>63</v>
-      </c>
       <c r="D26" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" s="20">
         <v>17.280053992951299</v>
@@ -2673,10 +2668,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="C27" s="20">
         <v>0</v>
@@ -2723,10 +2718,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="C28" s="20">
         <v>2.2073329289950001E-2</v>
@@ -2773,10 +2768,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="C29" s="20">
         <v>0.12480900692159</v>
@@ -2823,10 +2818,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="C30" s="20">
         <v>0</v>
@@ -2873,10 +2868,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="C31" s="20">
         <v>0</v>
@@ -2923,10 +2918,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>75</v>
       </c>
       <c r="C32" s="20">
         <v>0</v>
@@ -2959,33 +2954,33 @@
         <v>7.22269907055448</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N32" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P32" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>77</v>
-      </c>
       <c r="C33" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="20">
         <v>60.181756464297401</v>
@@ -3023,19 +3018,19 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>79</v>
-      </c>
       <c r="C34" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" s="16">
         <v>3.29339629515859</v>
@@ -3073,10 +3068,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>81</v>
       </c>
       <c r="C35" s="20">
         <v>3.5980944144434299</v>
@@ -3123,10 +3118,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="C36" s="20">
         <v>0</v>
@@ -3173,10 +3168,10 @@
     </row>
     <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="C37" s="20">
         <v>0</v>
@@ -3223,10 +3218,10 @@
     </row>
     <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="27">
         <v>0.63298986704244997</v>
@@ -3273,10 +3268,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>87</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>88</v>
       </c>
       <c r="C39" s="13">
         <v>14.3947588904912</v>
@@ -3323,10 +3318,10 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="C40" s="20">
         <v>4.0186789704352899</v>
@@ -3373,10 +3368,10 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>91</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>92</v>
       </c>
       <c r="C41" s="13">
         <v>43.8882633204272</v>
@@ -3423,10 +3418,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>93</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>94</v>
       </c>
       <c r="C42" s="13">
         <v>0</v>
@@ -3473,10 +3468,10 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>96</v>
       </c>
       <c r="C43" s="20">
         <v>2.6148443245599998E-3</v>
@@ -3523,10 +3518,10 @@
     </row>
     <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="C44" s="20">
         <v>1.7099482709178599</v>
@@ -3573,10 +3568,10 @@
     </row>
     <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="27">
         <v>7.3432445630079597</v>
@@ -3623,10 +3618,10 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="C46" s="20">
         <v>0.11614349514166999</v>
@@ -3673,10 +3668,10 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="C47" s="20">
         <v>0</v>
@@ -3723,10 +3718,10 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="C48" s="20">
         <v>0</v>
@@ -3773,10 +3768,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="C49" s="20">
         <v>1.0475005420051</v>
@@ -3823,10 +3818,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>109</v>
       </c>
       <c r="C50" s="20">
         <v>0</v>
@@ -3873,10 +3868,10 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>111</v>
       </c>
       <c r="C51" s="16">
         <v>4.6960877241955901</v>
@@ -3923,10 +3918,10 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="C52" s="20">
         <v>0</v>
@@ -3973,10 +3968,10 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>115</v>
       </c>
       <c r="C53" s="20">
         <v>0</v>
@@ -4023,10 +4018,10 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>117</v>
       </c>
       <c r="C54" s="20">
         <v>0</v>
@@ -4073,10 +4068,10 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="C55" s="20">
         <v>0</v>
@@ -4123,10 +4118,10 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="C56" s="20">
         <v>1.3395153888383</v>
@@ -4173,10 +4168,10 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="30" t="s">
         <v>122</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>123</v>
       </c>
       <c r="C57" s="13">
         <v>7.4000447437456298</v>
@@ -4223,10 +4218,10 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>125</v>
       </c>
       <c r="C58" s="20">
         <v>0</v>
@@ -4273,10 +4268,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="C59" s="20">
         <v>0</v>
@@ -4323,10 +4318,10 @@
     </row>
     <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="C60" s="16">
         <v>0</v>
@@ -4373,10 +4368,10 @@
     </row>
     <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C61" s="27">
         <v>5.2821499421673304</v>
@@ -4423,10 +4418,10 @@
     </row>
     <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="33">
         <v>5.2283935393359604</v>
@@ -4473,10 +4468,10 @@
     </row>
     <row r="63" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" s="33">
         <v>1.5387803594409399</v>
@@ -4523,10 +4518,10 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="37">
         <v>1.77367826347372</v>
@@ -4573,10 +4568,10 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="40">
         <v>0.89580578340021999</v>
@@ -4623,10 +4618,10 @@
     </row>
     <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="43">
         <v>1.72656827975828</v>
@@ -4673,10 +4668,10 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" s="40">
         <v>3.8673381647484599</v>
@@ -4723,10 +4718,10 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="40">
         <v>5.2882480152262499</v>
@@ -4773,10 +4768,10 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" s="40">
         <v>9.8139457432700004E-3</v>
@@ -4823,10 +4818,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="40">
         <v>14.9307699161428</v>
@@ -4873,10 +4868,10 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C71" s="40">
         <v>5.2821499421673304</v>
@@ -4923,10 +4918,10 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C72" s="40">
         <v>0.83848664749317003</v>
@@ -4973,10 +4968,10 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C73" s="40">
         <v>3.4186191644144301</v>
@@ -5023,10 +5018,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C74" s="40">
         <v>3.4186191644144301</v>
@@ -5073,10 +5068,10 @@
     </row>
     <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C75" s="43">
         <v>11.2045598497245</v>
@@ -5123,10 +5118,10 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C76" s="40">
         <v>0.90717373318757999</v>
@@ -5173,10 +5168,10 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C77" s="40">
         <v>1.9818695854902499</v>
@@ -5223,10 +5218,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C78" s="40">
         <v>1.9818695854902499</v>
@@ -5273,10 +5268,10 @@
     </row>
     <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C79" s="43">
         <v>4.0130085409470002E-2</v>
@@ -5323,10 +5318,10 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C80" s="40">
         <v>13.6002630072404</v>
@@ -5373,10 +5368,10 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C81" s="40">
         <v>15.531686683923599</v>
@@ -5423,10 +5418,10 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C82" s="40">
         <v>1.5532279151147601</v>
@@ -5473,10 +5468,10 @@
     </row>
     <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C83" s="43">
         <v>0.45783803774927001</v>
@@ -5523,10 +5518,10 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C84" s="40">
         <v>1.2081941353953001</v>
@@ -5573,10 +5568,10 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C85" s="40">
         <v>2.3327950152827102</v>
@@ -5623,10 +5618,10 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C86" s="40">
         <v>6.2104355720217397</v>
@@ -5673,10 +5668,10 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C87" s="40">
         <v>0.49895320923820002</v>
@@ -5723,10 +5718,10 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C88" s="40">
         <v>4.9980592695975199</v>
@@ -5773,10 +5768,10 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C89" s="40">
         <v>2.2046570874736702</v>
@@ -5823,10 +5818,10 @@
     </row>
     <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C90" s="43">
         <v>1.3799127961489801</v>
@@ -5873,10 +5868,10 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C91" s="40">
         <v>4.1820868309110901</v>
@@ -5923,10 +5918,10 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C92" s="40">
         <v>0.30660993752156002</v>
@@ -5973,10 +5968,10 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C93" s="40">
         <v>0</v>
@@ -6023,10 +6018,10 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B94" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C94" s="40">
         <v>0.47010243596631002</v>
@@ -6073,10 +6068,10 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C95" s="40">
         <v>0.68095690557887001</v>
@@ -6123,10 +6118,10 @@
     </row>
     <row r="96" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C96" s="43">
         <v>6.8562740893626799</v>
@@ -6173,10 +6168,10 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C97" s="40">
         <v>6.5389447158075704</v>
@@ -6223,10 +6218,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B98" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C98" s="40">
         <v>0.25202570506305999</v>
@@ -6273,10 +6268,10 @@
     </row>
     <row r="99" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C99" s="43">
         <v>21.077551688809301</v>
@@ -6341,27 +6336,27 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -6369,27 +6364,27 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6399,7 +6394,6 @@
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B112" r:id="rId4"/>
     <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents"/>
     <hyperlink ref="B107" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AfDD_2022_Annex_Table_Tab10.xlsx
+++ b/AfDD_2022_Annex_Table_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="180">
   <si>
     <t>Table 10: Sectoral breakdown of the economy</t>
   </si>
   <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>Employment in manufacturing (incl. in industry) as a % of total, 2019</t>
   </si>
   <si>
+    <t>AGO</t>
+  </si>
+  <si>
     <t>Angola*</t>
   </si>
   <si>
@@ -535,10 +541,13 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".</t>
-  </si>
-  <si>
-    <t>Source: International Labour Organisation (retrieved 25/10/2020), United Nations Statistics Division National Accounts (Analysis of Main Aggregates dataset uploaded in December 2020), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -01/04/2021).</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+  </si>
+  <si>
+    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+  </si>
+  <si>
+    <t>Source: International Labour Organisation (retrieved 25/10/2020), United Nations Statistics Division National Accounts (Analysis of Main Aggregates dataset uploaded in December 2020), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -15/09/2021).</t>
   </si>
   <si>
     <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -550,88 +559,10 @@
     <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in compressed csv format, including historic data back to 2000, click here.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the first of two data files.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the second of two data files.</t>
-    </r>
+    <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
+  </si>
+  <si>
+    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
 </sst>
 </file>
@@ -643,7 +574,7 @@
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,15 +690,6 @@
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1387,7 +1309,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P113"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1418,60 +1340,62 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" ht="90.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
+      <c r="A3" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="B3" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="13">
         <v>25.0903030417286</v>
@@ -1518,10 +1442,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="16">
         <v>0</v>
@@ -1568,10 +1492,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="20">
         <v>0</v>
@@ -1618,10 +1542,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="20">
         <v>0</v>
@@ -1668,10 +1592,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="20">
         <v>0</v>
@@ -1718,10 +1642,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="20">
         <v>0.14873620206801999</v>
@@ -1768,10 +1692,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="20">
         <v>0</v>
@@ -1818,10 +1742,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="20">
         <v>4.4740084191000002E-3</v>
@@ -1868,10 +1792,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="16">
         <v>0</v>
@@ -1918,10 +1842,10 @@
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="23">
         <v>0</v>
@@ -1968,10 +1892,10 @@
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" s="27">
         <v>4.2467176578698398</v>
@@ -2018,10 +1942,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="20">
         <v>0</v>
@@ -2068,10 +1992,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" s="20">
         <v>2.80179480883054</v>
@@ -2118,10 +2042,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" s="20">
         <v>0</v>
@@ -2168,10 +2092,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" s="13">
         <v>17.786699997359399</v>
@@ -2218,10 +2142,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" s="13">
         <v>43.449576811241798</v>
@@ -2268,10 +2192,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" s="16">
         <v>0.74870783289039999</v>
@@ -2318,10 +2242,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" s="13">
         <v>22.2649239155296</v>
@@ -2368,10 +2292,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" s="13">
         <v>18.801320629744001</v>
@@ -2418,10 +2342,10 @@
     </row>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" s="20">
         <v>0</v>
@@ -2468,10 +2392,10 @@
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="27">
         <v>9.2753485186298192</v>
@@ -2518,10 +2442,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="20">
         <v>0</v>
@@ -2568,10 +2492,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="20">
         <v>0</v>
@@ -2618,19 +2542,19 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" s="20">
         <v>17.280053992951299</v>
@@ -2668,10 +2592,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C27" s="20">
         <v>0</v>
@@ -2718,10 +2642,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="20">
         <v>2.2073329289950001E-2</v>
@@ -2768,10 +2692,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="20">
         <v>0.12480900692159</v>
@@ -2818,10 +2742,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" s="20">
         <v>0</v>
@@ -2868,10 +2792,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" s="20">
         <v>0</v>
@@ -2918,10 +2842,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" s="20">
         <v>0</v>
@@ -2954,33 +2878,33 @@
         <v>7.22269907055448</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N32" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P32" s="21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F33" s="20">
         <v>60.181756464297401</v>
@@ -3018,19 +2942,19 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F34" s="16">
         <v>3.29339629515859</v>
@@ -3068,10 +2992,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C35" s="20">
         <v>3.5980944144434299</v>
@@ -3118,10 +3042,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C36" s="20">
         <v>0</v>
@@ -3168,10 +3092,10 @@
     </row>
     <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C37" s="20">
         <v>0</v>
@@ -3218,10 +3142,10 @@
     </row>
     <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C38" s="27">
         <v>0.63298986704244997</v>
@@ -3268,10 +3192,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C39" s="13">
         <v>14.3947588904912</v>
@@ -3318,10 +3242,10 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C40" s="20">
         <v>4.0186789704352899</v>
@@ -3368,10 +3292,10 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C41" s="13">
         <v>43.8882633204272</v>
@@ -3418,10 +3342,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C42" s="13">
         <v>0</v>
@@ -3468,10 +3392,10 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C43" s="20">
         <v>2.6148443245599998E-3</v>
@@ -3518,10 +3442,10 @@
     </row>
     <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C44" s="20">
         <v>1.7099482709178599</v>
@@ -3568,10 +3492,10 @@
     </row>
     <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C45" s="27">
         <v>7.3432445630079597</v>
@@ -3618,10 +3542,10 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C46" s="20">
         <v>0.11614349514166999</v>
@@ -3668,10 +3592,10 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C47" s="20">
         <v>0</v>
@@ -3718,10 +3642,10 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C48" s="20">
         <v>0</v>
@@ -3768,10 +3692,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C49" s="20">
         <v>1.0475005420051</v>
@@ -3818,10 +3742,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C50" s="20">
         <v>0</v>
@@ -3868,10 +3792,10 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C51" s="16">
         <v>4.6960877241955901</v>
@@ -3918,10 +3842,10 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C52" s="20">
         <v>0</v>
@@ -3968,10 +3892,10 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C53" s="20">
         <v>0</v>
@@ -4018,10 +3942,10 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C54" s="20">
         <v>0</v>
@@ -4068,10 +3992,10 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C55" s="20">
         <v>0</v>
@@ -4118,10 +4042,10 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C56" s="20">
         <v>1.3395153888383</v>
@@ -4168,10 +4092,10 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C57" s="13">
         <v>7.4000447437456298</v>
@@ -4218,10 +4142,10 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C58" s="20">
         <v>0</v>
@@ -4268,10 +4192,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C59" s="20">
         <v>0</v>
@@ -4318,10 +4242,10 @@
     </row>
     <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C60" s="16">
         <v>0</v>
@@ -4368,10 +4292,10 @@
     </row>
     <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C61" s="27">
         <v>5.2821499421673304</v>
@@ -4418,10 +4342,10 @@
     </row>
     <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C62" s="33">
         <v>5.2283935393359604</v>
@@ -4468,10 +4392,10 @@
     </row>
     <row r="63" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C63" s="33">
         <v>1.5387803594409399</v>
@@ -4518,10 +4442,10 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C64" s="37">
         <v>1.77367826347372</v>
@@ -4560,7 +4484,7 @@
         <v>18.830653367685098</v>
       </c>
       <c r="O64" s="38">
-        <v>65.975321379002594</v>
+        <v>65.975321379002494</v>
       </c>
       <c r="P64" s="38">
         <v>9.2357569846205099</v>
@@ -4568,10 +4492,10 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C65" s="40">
         <v>0.89580578340021999</v>
@@ -4618,10 +4542,10 @@
     </row>
     <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C66" s="43">
         <v>1.72656827975828</v>
@@ -4668,10 +4592,10 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C67" s="40">
         <v>3.8673381647484599</v>
@@ -4718,10 +4642,10 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C68" s="40">
         <v>5.2882480152262499</v>
@@ -4768,10 +4692,10 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C69" s="40">
         <v>9.8139457432700004E-3</v>
@@ -4818,10 +4742,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C70" s="40">
         <v>14.9307699161428</v>
@@ -4868,10 +4792,10 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C71" s="40">
         <v>5.2821499421673304</v>
@@ -4918,10 +4842,10 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C72" s="40">
         <v>0.83848664749317003</v>
@@ -4968,10 +4892,10 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C73" s="40">
         <v>3.4186191644144301</v>
@@ -5018,110 +4942,110 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C74" s="40">
-        <v>3.4186191644144301</v>
+        <v>11.2045598497245</v>
       </c>
       <c r="D74" s="40">
-        <v>0.99569577369863005</v>
+        <v>0.33201233773606997</v>
       </c>
       <c r="E74" s="41">
-        <v>7.2063346473692</v>
+        <v>12.710640314589901</v>
       </c>
       <c r="F74" s="40">
-        <v>8.7779749738123094</v>
+        <v>12.066826354603</v>
       </c>
       <c r="G74" s="40">
-        <v>25.823711268022301</v>
+        <v>28.0341624289272</v>
       </c>
       <c r="H74" s="40">
-        <v>6.1726358245394604</v>
+        <v>8.3804474701126193</v>
       </c>
       <c r="I74" s="40">
-        <v>16.232351302840499</v>
+        <v>12.743090479248901</v>
       </c>
       <c r="J74" s="40">
-        <v>8.6834976315848493</v>
+        <v>9.2248784702498305</v>
       </c>
       <c r="K74" s="41">
-        <v>34.309828999386497</v>
+        <v>29.550594797066701</v>
       </c>
       <c r="L74" s="41">
-        <v>12.0521621067696</v>
+        <v>9.5451222040494308</v>
       </c>
       <c r="M74" s="40">
-        <v>43.380808304997998</v>
+        <v>20.749403764400299</v>
       </c>
       <c r="N74" s="40">
-        <v>13.235678742638299</v>
+        <v>25.766463300839298</v>
       </c>
       <c r="O74" s="41">
-        <v>43.383527762285901</v>
+        <v>53.484116723091603</v>
       </c>
       <c r="P74" s="41">
-        <v>6.6237769465969896</v>
+        <v>12.224764299843899</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C75" s="43">
-        <v>11.2045598497245</v>
+        <v>20.650971697924302</v>
       </c>
       <c r="D75" s="43">
-        <v>0.33201233773606997</v>
+        <v>0</v>
       </c>
       <c r="E75" s="44">
-        <v>12.710640314589901</v>
+        <v>23.8917771788038</v>
       </c>
       <c r="F75" s="43">
-        <v>12.066826354603</v>
+        <v>11.7014727256544</v>
       </c>
       <c r="G75" s="43">
-        <v>28.0341624289272</v>
+        <v>31.6527200736131</v>
       </c>
       <c r="H75" s="43">
-        <v>8.3804474701126193</v>
+        <v>10.367179057043099</v>
       </c>
       <c r="I75" s="43">
-        <v>12.743090479248901</v>
+        <v>18.904088922979899</v>
       </c>
       <c r="J75" s="43">
-        <v>9.2248784702498305</v>
+        <v>5.3081754768619804</v>
       </c>
       <c r="K75" s="44">
-        <v>29.550594797066701</v>
+        <v>22.066363743885699</v>
       </c>
       <c r="L75" s="44">
-        <v>9.5451222040494308</v>
+        <v>8.3890028759083801</v>
       </c>
       <c r="M75" s="43">
-        <v>20.749403764400299</v>
+        <v>41.770647644</v>
       </c>
       <c r="N75" s="43">
-        <v>25.766463300839298</v>
+        <v>13.8320849953442</v>
       </c>
       <c r="O75" s="44">
-        <v>53.484116723091603</v>
+        <v>44.397034808885699</v>
       </c>
       <c r="P75" s="44">
-        <v>12.224764299843899</v>
+        <v>7.11629113861866</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C76" s="40">
         <v>0.90717373318757999</v>
@@ -5168,10 +5092,10 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C77" s="40">
         <v>1.9818695854902499</v>
@@ -5218,110 +5142,110 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C78" s="40">
-        <v>1.9818695854902499</v>
+        <v>4.0130085409470002E-2</v>
       </c>
       <c r="D78" s="40">
-        <v>0.58862378508306001</v>
+        <v>3.0148499006040001E-2</v>
       </c>
       <c r="E78" s="41">
-        <v>3.2306831322969298</v>
+        <v>0.19057718829473</v>
       </c>
       <c r="F78" s="40">
-        <v>6.2536187055343602</v>
+        <v>1.7931513733645701</v>
       </c>
       <c r="G78" s="40">
-        <v>19.590074037225101</v>
+        <v>19.7244292021748</v>
       </c>
       <c r="H78" s="40">
-        <v>6.1527332507979597</v>
+        <v>5.49335172699839</v>
       </c>
       <c r="I78" s="40">
-        <v>15.594820460544501</v>
+        <v>14.232691182392299</v>
       </c>
       <c r="J78" s="40">
-        <v>7.7602023527397899</v>
+        <v>10.0438445442879</v>
       </c>
       <c r="K78" s="41">
-        <v>44.649290882121797</v>
+        <v>48.712531970766101</v>
       </c>
       <c r="L78" s="41">
-        <v>12.2438614602315</v>
+        <v>16.584738888964701</v>
       </c>
       <c r="M78" s="40">
-        <v>15.019217238611001</v>
+        <v>4.6740069012619401</v>
       </c>
       <c r="N78" s="40">
-        <v>19.800843801379099</v>
+        <v>24.4173591626448</v>
       </c>
       <c r="O78" s="41">
-        <v>65.179935409860505</v>
+        <v>70.908624157134398</v>
       </c>
       <c r="P78" s="41">
-        <v>9.9803116713675202</v>
+        <v>15.441296683537001</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C79" s="43">
-        <v>4.0130085409470002E-2</v>
+        <v>0.36292800948456999</v>
       </c>
       <c r="D79" s="43">
-        <v>3.0148499006040001E-2</v>
+        <v>0.11179985674905001</v>
       </c>
       <c r="E79" s="44">
-        <v>0.19057718829473</v>
+        <v>0.67885541159271001</v>
       </c>
       <c r="F79" s="43">
-        <v>1.7931513733645701</v>
+        <v>1.42297068794102</v>
       </c>
       <c r="G79" s="43">
-        <v>19.7244292021748</v>
+        <v>17.909156613019299</v>
       </c>
       <c r="H79" s="43">
-        <v>5.49335172699839</v>
+        <v>5.2389951367104599</v>
       </c>
       <c r="I79" s="43">
-        <v>14.232691182392299</v>
+        <v>14.446336813579901</v>
       </c>
       <c r="J79" s="43">
-        <v>10.0438445442879</v>
+        <v>10.0454822266758</v>
       </c>
       <c r="K79" s="44">
-        <v>48.712531970766101</v>
+        <v>50.937058522072</v>
       </c>
       <c r="L79" s="44">
-        <v>16.584738888964701</v>
+        <v>14.0986312581774</v>
       </c>
       <c r="M79" s="43">
-        <v>4.6740069012619401</v>
+        <v>4.8991183925569803</v>
       </c>
       <c r="N79" s="43">
-        <v>24.4173591626448</v>
+        <v>22.7483458863911</v>
       </c>
       <c r="O79" s="44">
-        <v>70.908624157134398</v>
+        <v>72.352532287226197</v>
       </c>
       <c r="P79" s="44">
-        <v>15.441296683537001</v>
+        <v>13.8969885097579</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C80" s="40">
         <v>13.6002630072404</v>
@@ -5368,10 +5292,10 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C81" s="40">
         <v>15.531686683923599</v>
@@ -5418,10 +5342,10 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C82" s="40">
         <v>1.5532279151147601</v>
@@ -5454,7 +5378,7 @@
         <v>12.9387818771366</v>
       </c>
       <c r="M82" s="40">
-        <v>45.3696056802033</v>
+        <v>45.369605680203399</v>
       </c>
       <c r="N82" s="40">
         <v>13.566656969188401</v>
@@ -5468,10 +5392,10 @@
     </row>
     <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C83" s="43">
         <v>0.45783803774927001</v>
@@ -5518,10 +5442,10 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C84" s="40">
         <v>1.2081941353953001</v>
@@ -5568,10 +5492,10 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C85" s="40">
         <v>2.3327950152827102</v>
@@ -5618,10 +5542,10 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C86" s="40">
         <v>6.2104355720217397</v>
@@ -5668,10 +5592,10 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C87" s="40">
         <v>0.49895320923820002</v>
@@ -5718,10 +5642,10 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C88" s="40">
         <v>4.9980592695975199</v>
@@ -5768,10 +5692,10 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C89" s="40">
         <v>2.2046570874736702</v>
@@ -5818,10 +5742,10 @@
     </row>
     <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C90" s="43">
         <v>1.3799127961489801</v>
@@ -5868,10 +5792,10 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C91" s="40">
         <v>4.1820868309110901</v>
@@ -5918,10 +5842,10 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C92" s="40">
         <v>0.30660993752156002</v>
@@ -5968,10 +5892,10 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C93" s="40">
         <v>0</v>
@@ -6018,10 +5942,10 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B94" s="39" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C94" s="40">
         <v>0.47010243596631002</v>
@@ -6068,10 +5992,10 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C95" s="40">
         <v>0.68095690557887001</v>
@@ -6118,10 +6042,10 @@
     </row>
     <row r="96" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C96" s="43">
         <v>6.8562740893626799</v>
@@ -6168,110 +6092,110 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C97" s="40">
-        <v>6.5389447158075704</v>
+        <v>6.4999533688117301</v>
       </c>
       <c r="D97" s="40">
-        <v>0.19131321342053001</v>
+        <v>0.26417319193508998</v>
       </c>
       <c r="E97" s="41">
-        <v>9.2342351728270096</v>
+        <v>9.4396309561409506</v>
       </c>
       <c r="F97" s="40">
-        <v>22.898055514910101</v>
+        <v>22.6681774850416</v>
       </c>
       <c r="G97" s="40">
-        <v>21.012301670619099</v>
+        <v>21.887554219034701</v>
       </c>
       <c r="H97" s="40">
-        <v>7.8240353633876003</v>
+        <v>7.3406036980332097</v>
       </c>
       <c r="I97" s="40">
-        <v>15.7236719000981</v>
+        <v>15.655547086996799</v>
       </c>
       <c r="J97" s="40">
-        <v>9.5801469185841306</v>
+        <v>9.4685249164710701</v>
       </c>
       <c r="K97" s="41">
-        <v>22.9617886326443</v>
+        <v>22.979592594642501</v>
       </c>
       <c r="L97" s="41">
-        <v>10.290142736473999</v>
+        <v>10.6122765967174</v>
       </c>
       <c r="M97" s="40">
-        <v>47.679023588487503</v>
+        <v>51.100807519792198</v>
       </c>
       <c r="N97" s="40">
-        <v>12.132498197508699</v>
+        <v>11.627552906336099</v>
       </c>
       <c r="O97" s="41">
-        <v>40.188490263729797</v>
+        <v>37.271649473383803</v>
       </c>
       <c r="P97" s="41">
-        <v>7.1387528313182402</v>
+        <v>6.6940211776143901</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B98" s="39" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C98" s="40">
-        <v>0.25202570506305999</v>
+        <v>5.9222000351960302</v>
       </c>
       <c r="D98" s="40">
-        <v>0.15213033250735999</v>
+        <v>0.12214934692326999</v>
       </c>
       <c r="E98" s="41">
-        <v>1.4565433656240701</v>
+        <v>6.9427470990715703</v>
       </c>
       <c r="F98" s="40">
-        <v>13.5764933215513</v>
+        <v>12.6057627956995</v>
       </c>
       <c r="G98" s="40">
-        <v>25.545199024051701</v>
+        <v>27.974303595253001</v>
       </c>
       <c r="H98" s="40">
-        <v>5.9587696242855097</v>
+        <v>5.7276848044709796</v>
       </c>
       <c r="I98" s="40">
-        <v>15.938758438744401</v>
+        <v>15.04773792394</v>
       </c>
       <c r="J98" s="40">
-        <v>9.4317006713415807</v>
+        <v>9.5553486550869895</v>
       </c>
       <c r="K98" s="41">
-        <v>29.549078920050999</v>
+        <v>29.089162225569702</v>
       </c>
       <c r="L98" s="41">
-        <v>14.8624495804823</v>
+        <v>12.986165385314999</v>
       </c>
       <c r="M98" s="40">
-        <v>37.042800684424101</v>
+        <v>33.9966336363225</v>
       </c>
       <c r="N98" s="40">
-        <v>18.664085083939099</v>
+        <v>18.040606559335298</v>
       </c>
       <c r="O98" s="41">
-        <v>44.293138165870303</v>
+        <v>47.962777440093198</v>
       </c>
       <c r="P98" s="41">
-        <v>10.764714212284501</v>
+        <v>9.8663463077420808</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C99" s="43">
         <v>21.077551688809301</v>
@@ -6336,67 +6260,69 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="48" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="48" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="48" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="48" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="51" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A105" s="48" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="51"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B109" s="2" t="s">
-        <v>173</v>
-      </c>
+      <c r="B108" s="51" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B109" s="51"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>176</v>
-      </c>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1"/>
-    <hyperlink ref="B110" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B111" r:id="rId3"/>
-    <hyperlink ref="B112" r:id="rId4"/>
-    <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B107" r:id="rId6"/>
+    <hyperlink ref="B110" r:id="rId1"/>
+    <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
+    <hyperlink ref="B114" r:id="rId3"/>
+    <hyperlink ref="B113" r:id="rId4"/>
+    <hyperlink ref="B108" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="39" fitToHeight="0" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/AfDD_2022_Annex_Table_Tab10.xlsx
+++ b/AfDD_2022_Annex_Table_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab10.xlsx
+++ b/AfDD_2022_Annex_Table_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab10.xlsx
+++ b/AfDD_2022_Annex_Table_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab10.xlsx
+++ b/AfDD_2022_Annex_Table_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Source: International Labour Organisation (retrieved 25/10/2020), United Nations Statistics Division National Accounts (Analysis of Main Aggregates dataset uploaded in December 2020), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -15/09/2021).</t>
@@ -5848,46 +5848,46 @@
         <v>162</v>
       </c>
       <c r="C92" s="40">
-        <v>0.30660993752156002</v>
+        <v>0.30677440591209998</v>
       </c>
       <c r="D92" s="40">
-        <v>0.14053656264924999</v>
+        <v>0.14061194775404001</v>
       </c>
       <c r="E92" s="41">
-        <v>1.6539889756947099</v>
+        <v>1.65460813040528</v>
       </c>
       <c r="F92" s="40">
-        <v>17.166097420641901</v>
+        <v>17.156271763174999</v>
       </c>
       <c r="G92" s="40">
-        <v>22.230946603410899</v>
+        <v>22.260286893258201</v>
       </c>
       <c r="H92" s="40">
-        <v>8.1548705455258403</v>
+        <v>8.1587489000202194</v>
       </c>
       <c r="I92" s="40">
-        <v>15.868201959670699</v>
+        <v>15.853344299466601</v>
       </c>
       <c r="J92" s="40">
-        <v>9.8567169466032691</v>
+        <v>9.8572606560882505</v>
       </c>
       <c r="K92" s="41">
-        <v>26.72316652408</v>
+        <v>26.714087487922502</v>
       </c>
       <c r="L92" s="41">
-        <v>17.888928509535301</v>
+        <v>17.914222465437799</v>
       </c>
       <c r="M92" s="40">
-        <v>44.635091328133903</v>
+        <v>43.530725446164503</v>
       </c>
       <c r="N92" s="40">
-        <v>15.188204419315101</v>
+        <v>15.2891659455079</v>
       </c>
       <c r="O92" s="41">
-        <v>40.1767291881673</v>
+        <v>41.180135810818001</v>
       </c>
       <c r="P92" s="41">
-        <v>7.8099178569786298</v>
+        <v>8.0899811543152094</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">

--- a/AfDD_2022_Annex_Table_Tab10.xlsx
+++ b/AfDD_2022_Annex_Table_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab10.xlsx
+++ b/AfDD_2022_Annex_Table_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
     <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
-    <t>Source: International Labour Organisation (retrieved 25/10/2020), United Nations Statistics Division National Accounts (Analysis of Main Aggregates dataset uploaded in December 2020), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -15/09/2021).</t>
+    <t>Source: International Labour Organisation (retrieved 14/11/2021), United Nations Statistics Division National Accounts (Analysis of Main Aggregates dataset uploaded in December 2020), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -22/04/2022).</t>
   </si>
   <si>
     <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -1898,13 +1898,13 @@
         <v>38</v>
       </c>
       <c r="C13" s="27">
-        <v>4.2467176578698398</v>
+        <v>4.24511870492843</v>
       </c>
       <c r="D13" s="27">
-        <v>1.0251674933422701</v>
+        <v>1.0256180954427401</v>
       </c>
       <c r="E13" s="28">
-        <v>7.8763732885398303</v>
+        <v>7.8760176205545198</v>
       </c>
       <c r="F13" s="27">
         <v>5.0657994036641396</v>
@@ -2398,13 +2398,13 @@
         <v>57</v>
       </c>
       <c r="C23" s="27">
-        <v>9.2753485186298192</v>
+        <v>9.2239408501254196</v>
       </c>
       <c r="D23" s="27">
-        <v>0.93914765663721</v>
+        <v>0.93080563470538003</v>
       </c>
       <c r="E23" s="28">
-        <v>15.1206479490807</v>
+        <v>15.041837465209699</v>
       </c>
       <c r="F23" s="27">
         <v>16.3650575530345</v>
@@ -3148,13 +3148,13 @@
         <v>87</v>
       </c>
       <c r="C38" s="27">
-        <v>0.63298986704244997</v>
+        <v>0.64473634843504002</v>
       </c>
       <c r="D38" s="27">
-        <v>5.1546024426999998E-4</v>
+        <v>5.2466462391999996E-4</v>
       </c>
       <c r="E38" s="28">
-        <v>3.48095440311404</v>
+        <v>3.4898531808666799</v>
       </c>
       <c r="F38" s="27">
         <v>29.314467077315999</v>
@@ -3498,13 +3498,13 @@
         <v>100</v>
       </c>
       <c r="C45" s="27">
-        <v>7.3432445630079597</v>
+        <v>7.3215173912970704</v>
       </c>
       <c r="D45" s="27">
-        <v>0.15701062826626999</v>
+        <v>0.15644886761608001</v>
       </c>
       <c r="E45" s="28">
-        <v>8.5557709138101092</v>
+        <v>8.5311452410706394</v>
       </c>
       <c r="F45" s="27">
         <v>11.739089429526301</v>
@@ -4298,13 +4298,13 @@
         <v>131</v>
       </c>
       <c r="C61" s="27">
-        <v>5.2821499421673304</v>
+        <v>5.2818945746942001</v>
       </c>
       <c r="D61" s="27">
-        <v>7.1123379958299995E-2</v>
+        <v>7.0977671788809996E-2</v>
       </c>
       <c r="E61" s="28">
-        <v>7.48705749510684</v>
+        <v>7.4865237466262897</v>
       </c>
       <c r="F61" s="27">
         <v>22.8993314430931</v>
@@ -4348,13 +4348,13 @@
         <v>132</v>
       </c>
       <c r="C62" s="33">
-        <v>5.2283935393359604</v>
+        <v>5.2216836665081203</v>
       </c>
       <c r="D62" s="33">
-        <v>0.31718473375430001</v>
+        <v>0.31636727112377</v>
       </c>
       <c r="E62" s="34">
-        <v>7.6496865233436502</v>
+        <v>7.6403140161355996</v>
       </c>
       <c r="F62" s="33">
         <v>16.555378377897298</v>
@@ -4398,13 +4398,13 @@
         <v>133</v>
       </c>
       <c r="C63" s="33">
-        <v>1.5387803594409399</v>
+        <v>1.53799932133146</v>
       </c>
       <c r="D63" s="33">
-        <v>0.21336857432403</v>
+        <v>0.21289374191068</v>
       </c>
       <c r="E63" s="34">
-        <v>2.3983651443644902</v>
+        <v>2.3968920203694899</v>
       </c>
       <c r="F63" s="33">
         <v>3.890694689919</v>
@@ -4448,13 +4448,13 @@
         <v>134</v>
       </c>
       <c r="C64" s="37">
-        <v>1.77367826347372</v>
+        <v>1.7736836525341499</v>
       </c>
       <c r="D64" s="37">
-        <v>0.44615441184884003</v>
+        <v>0.44582365183315997</v>
       </c>
       <c r="E64" s="38">
-        <v>2.75320928056817</v>
+        <v>2.75337319723518</v>
       </c>
       <c r="F64" s="37">
         <v>5.5501832025947202</v>
@@ -4498,13 +4498,13 @@
         <v>135</v>
       </c>
       <c r="C65" s="40">
-        <v>0.89580578340021999</v>
+        <v>0.89492303171263998</v>
       </c>
       <c r="D65" s="40">
-        <v>0.30480174557417</v>
+        <v>0.30388181616974003</v>
       </c>
       <c r="E65" s="41">
-        <v>2.15730495607793</v>
+        <v>2.1546116573971399</v>
       </c>
       <c r="F65" s="40">
         <v>9.5952245253599902</v>
@@ -4548,13 +4548,13 @@
         <v>136</v>
       </c>
       <c r="C66" s="43">
-        <v>1.72656827975828</v>
+        <v>1.7256311056939999</v>
       </c>
       <c r="D66" s="43">
-        <v>0.21865224594738</v>
+        <v>0.21816406658472001</v>
       </c>
       <c r="E66" s="44">
-        <v>2.6656285252051899</v>
+        <v>2.6639606758106802</v>
       </c>
       <c r="F66" s="43">
         <v>4.2480123949244604</v>
@@ -4598,13 +4598,13 @@
         <v>137</v>
       </c>
       <c r="C67" s="40">
-        <v>3.8673381647484599</v>
+        <v>3.86105380973162</v>
       </c>
       <c r="D67" s="40">
-        <v>0.16878972860118999</v>
+        <v>0.16784557187966001</v>
       </c>
       <c r="E67" s="41">
-        <v>6.0879646693947196</v>
+        <v>6.0755247762998703</v>
       </c>
       <c r="F67" s="40">
         <v>18.439660893732999</v>
@@ -4648,13 +4648,13 @@
         <v>138</v>
       </c>
       <c r="C68" s="40">
-        <v>5.2882480152262499</v>
+        <v>5.2781053276270002</v>
       </c>
       <c r="D68" s="40">
-        <v>0.12931010619217001</v>
+        <v>0.12880948769287001</v>
       </c>
       <c r="E68" s="41">
-        <v>6.8970506450846898</v>
+        <v>6.8848584335615302</v>
       </c>
       <c r="F68" s="40">
         <v>18.252968098668099</v>
@@ -4698,13 +4698,13 @@
         <v>139</v>
       </c>
       <c r="C69" s="40">
-        <v>9.8139457432700004E-3</v>
+        <v>9.8146757952699993E-3</v>
       </c>
       <c r="D69" s="40">
-        <v>4.6453838239999999E-5</v>
+        <v>4.643947943E-5</v>
       </c>
       <c r="E69" s="41">
-        <v>2.5723156934069298</v>
+        <v>2.57205177967192</v>
       </c>
       <c r="F69" s="40">
         <v>30.8074018731362</v>
@@ -4748,13 +4748,13 @@
         <v>140</v>
       </c>
       <c r="C70" s="40">
-        <v>14.9307699161428</v>
+        <v>14.8686072250135</v>
       </c>
       <c r="D70" s="40">
-        <v>0.52673411262247005</v>
+        <v>0.52435270176505999</v>
       </c>
       <c r="E70" s="41">
-        <v>18.8007995739205</v>
+        <v>18.7344191769131</v>
       </c>
       <c r="F70" s="40">
         <v>14.2607593900831</v>
@@ -4798,13 +4798,13 @@
         <v>141</v>
       </c>
       <c r="C71" s="40">
-        <v>5.2821499421673304</v>
+        <v>5.2818945746942001</v>
       </c>
       <c r="D71" s="40">
-        <v>7.1123379958299995E-2</v>
+        <v>7.0977671788809996E-2</v>
       </c>
       <c r="E71" s="41">
-        <v>7.48705749510684</v>
+        <v>7.4865237466262897</v>
       </c>
       <c r="F71" s="40">
         <v>22.8993314430931</v>
@@ -4848,13 +4848,13 @@
         <v>142</v>
       </c>
       <c r="C72" s="40">
-        <v>0.83848664749317003</v>
+        <v>0.85322440258807997</v>
       </c>
       <c r="D72" s="40">
-        <v>6.8854175559000005E-4</v>
+        <v>7.0003148632999997E-4</v>
       </c>
       <c r="E72" s="41">
-        <v>3.9099364096707099</v>
+        <v>3.9202933658561601</v>
       </c>
       <c r="F72" s="40">
         <v>31.222728750134198</v>
@@ -4898,13 +4898,13 @@
         <v>143</v>
       </c>
       <c r="C73" s="40">
-        <v>3.4186191644144301</v>
+        <v>3.416424340786</v>
       </c>
       <c r="D73" s="40">
-        <v>0.99569577369863005</v>
+        <v>0.99593010995525</v>
       </c>
       <c r="E73" s="41">
-        <v>7.2063346473692</v>
+        <v>7.2048537359315299</v>
       </c>
       <c r="F73" s="40">
         <v>8.7779749738123094</v>
@@ -4948,13 +4948,13 @@
         <v>144</v>
       </c>
       <c r="C74" s="40">
-        <v>11.2045598497245</v>
+        <v>11.125760654154799</v>
       </c>
       <c r="D74" s="40">
-        <v>0.33201233773606997</v>
+        <v>0.3293511332772</v>
       </c>
       <c r="E74" s="41">
-        <v>12.710640314589901</v>
+        <v>12.623167783546901</v>
       </c>
       <c r="F74" s="40">
         <v>12.066826354603</v>
@@ -4998,13 +4998,13 @@
         <v>145</v>
       </c>
       <c r="C75" s="43">
-        <v>20.650971697924302</v>
+        <v>20.646836147698099</v>
       </c>
       <c r="D75" s="43">
         <v>0</v>
       </c>
       <c r="E75" s="44">
-        <v>23.8917771788038</v>
+        <v>23.889632314162199</v>
       </c>
       <c r="F75" s="43">
         <v>11.7014727256544</v>
@@ -5048,13 +5048,13 @@
         <v>146</v>
       </c>
       <c r="C76" s="40">
-        <v>0.90717373318757999</v>
+        <v>0.90729207139557</v>
       </c>
       <c r="D76" s="40">
-        <v>0.17367200618597001</v>
+        <v>0.17370901001059999</v>
       </c>
       <c r="E76" s="41">
-        <v>2.7882569159943</v>
+        <v>2.7886470056186701</v>
       </c>
       <c r="F76" s="40">
         <v>10.0463810068093</v>
@@ -5098,13 +5098,13 @@
         <v>147</v>
       </c>
       <c r="C77" s="40">
-        <v>1.9818695854902499</v>
+        <v>1.9818701590583301</v>
       </c>
       <c r="D77" s="40">
-        <v>0.58862378508306001</v>
+        <v>0.58838826316592996</v>
       </c>
       <c r="E77" s="41">
-        <v>3.2306831322969298</v>
+        <v>3.2304196876906599</v>
       </c>
       <c r="F77" s="40">
         <v>6.2536187055343602</v>
@@ -5148,13 +5148,13 @@
         <v>148</v>
       </c>
       <c r="C78" s="40">
-        <v>4.0130085409470002E-2</v>
+        <v>4.0160332233559998E-2</v>
       </c>
       <c r="D78" s="40">
-        <v>3.0148499006040001E-2</v>
+        <v>3.012799355049E-2</v>
       </c>
       <c r="E78" s="41">
-        <v>0.19057718829473</v>
+        <v>0.19059421440464999</v>
       </c>
       <c r="F78" s="40">
         <v>1.7931513733645701</v>
@@ -5198,13 +5198,13 @@
         <v>149</v>
       </c>
       <c r="C79" s="43">
-        <v>0.36292800948456999</v>
+        <v>0.36314711207219003</v>
       </c>
       <c r="D79" s="43">
-        <v>0.11179985674905001</v>
+        <v>0.11152221306819</v>
       </c>
       <c r="E79" s="44">
-        <v>0.67885541159271001</v>
+        <v>0.67860633949164995</v>
       </c>
       <c r="F79" s="43">
         <v>1.42297068794102</v>
@@ -5248,13 +5248,13 @@
         <v>150</v>
       </c>
       <c r="C80" s="40">
-        <v>13.6002630072404</v>
+        <v>13.598975826458499</v>
       </c>
       <c r="D80" s="40">
-        <v>0.15080703513179</v>
+        <v>0.15081776776983</v>
       </c>
       <c r="E80" s="41">
-        <v>15.607230813598299</v>
+        <v>15.606151388553201</v>
       </c>
       <c r="F80" s="40">
         <v>17.4151523808038</v>
@@ -5298,13 +5298,13 @@
         <v>151</v>
       </c>
       <c r="C81" s="40">
-        <v>15.531686683923599</v>
+        <v>15.5253439794699</v>
       </c>
       <c r="D81" s="40">
-        <v>0.33567721917174997</v>
+        <v>0.33605502046029001</v>
       </c>
       <c r="E81" s="41">
-        <v>18.314083887311501</v>
+        <v>18.309582978425802</v>
       </c>
       <c r="F81" s="40">
         <v>4.4091350074693603</v>
@@ -5348,13 +5348,13 @@
         <v>152</v>
       </c>
       <c r="C82" s="40">
-        <v>1.5532279151147601</v>
+        <v>1.55637400376145</v>
       </c>
       <c r="D82" s="40">
-        <v>0.39022285277404001</v>
+        <v>0.38880000746870003</v>
       </c>
       <c r="E82" s="41">
-        <v>4.1564054418742797</v>
+        <v>4.1550278239486902</v>
       </c>
       <c r="F82" s="40">
         <v>16.098683381376699</v>
@@ -5398,13 +5398,13 @@
         <v>153</v>
       </c>
       <c r="C83" s="43">
-        <v>0.45783803774927001</v>
+        <v>0.45784838059269001</v>
       </c>
       <c r="D83" s="43">
-        <v>0.20392071019373001</v>
+        <v>0.20338319870721</v>
       </c>
       <c r="E83" s="44">
-        <v>1.1689381614510801</v>
+        <v>1.1681102423440199</v>
       </c>
       <c r="F83" s="43">
         <v>3.8591087951685501</v>
@@ -5448,13 +5448,13 @@
         <v>154</v>
       </c>
       <c r="C84" s="40">
-        <v>1.2081941353953001</v>
+        <v>1.2201164985295301</v>
       </c>
       <c r="D84" s="40">
-        <v>0.39136585591348999</v>
+        <v>0.389526773682</v>
       </c>
       <c r="E84" s="41">
-        <v>6.1878323997329998</v>
+        <v>6.1880612012389697</v>
       </c>
       <c r="F84" s="40">
         <v>28.667585526968502</v>
@@ -5548,13 +5548,13 @@
         <v>156</v>
       </c>
       <c r="C86" s="40">
-        <v>6.2104355720217397</v>
+        <v>6.1996659926477697</v>
       </c>
       <c r="D86" s="40">
-        <v>0.11057997925059999</v>
+        <v>0.11022997292483</v>
       </c>
       <c r="E86" s="41">
-        <v>7.8076612384845996</v>
+        <v>7.7952395886384798</v>
       </c>
       <c r="F86" s="40">
         <v>17.670361031065099</v>
@@ -5598,13 +5598,13 @@
         <v>157</v>
       </c>
       <c r="C87" s="40">
-        <v>0.49895320923820002</v>
+        <v>0.49907381428577002</v>
       </c>
       <c r="D87" s="40">
-        <v>0.43726538767860001</v>
+        <v>0.43433652213343998</v>
       </c>
       <c r="E87" s="41">
-        <v>2.1925597333630198</v>
+        <v>2.1858492446400701</v>
       </c>
       <c r="F87" s="40">
         <v>15.299320293453601</v>
@@ -5648,13 +5648,13 @@
         <v>158</v>
       </c>
       <c r="C88" s="40">
-        <v>4.9980592695975199</v>
+        <v>4.9978301898136896</v>
       </c>
       <c r="D88" s="40">
-        <v>1.112099622396</v>
+        <v>1.1120113589761</v>
       </c>
       <c r="E88" s="41">
-        <v>8.4147560071493999</v>
+        <v>8.4143616566254895</v>
       </c>
       <c r="F88" s="40">
         <v>2.3473588428320502</v>
@@ -5698,13 +5698,13 @@
         <v>159</v>
       </c>
       <c r="C89" s="40">
-        <v>2.2046570874736702</v>
+        <v>2.2056835393462699</v>
       </c>
       <c r="D89" s="40">
-        <v>0.27175297257338998</v>
+        <v>0.27170604001456</v>
       </c>
       <c r="E89" s="41">
-        <v>3.4258206307034702</v>
+        <v>3.4272212523652801</v>
       </c>
       <c r="F89" s="40">
         <v>6.7580390768892702</v>
@@ -5748,13 +5748,13 @@
         <v>160</v>
       </c>
       <c r="C90" s="43">
-        <v>1.3799127961489801</v>
+        <v>1.37953764164502</v>
       </c>
       <c r="D90" s="43">
-        <v>0.10326732423024</v>
+        <v>0.10298128054202001</v>
       </c>
       <c r="E90" s="44">
-        <v>1.7252264429878901</v>
+        <v>1.7244346023097801</v>
       </c>
       <c r="F90" s="43">
         <v>1.25283545347737</v>
@@ -5798,13 +5798,13 @@
         <v>161</v>
       </c>
       <c r="C91" s="40">
-        <v>4.1820868309110901</v>
+        <v>4.1777892008159503</v>
       </c>
       <c r="D91" s="40">
-        <v>0.50376486653232</v>
+        <v>0.50230676143959996</v>
       </c>
       <c r="E91" s="41">
-        <v>8.2907276754060106</v>
+        <v>8.2815665605199005</v>
       </c>
       <c r="F91" s="40">
         <v>23.949802403985899</v>
@@ -5848,13 +5848,13 @@
         <v>162</v>
       </c>
       <c r="C92" s="40">
-        <v>0.30677440591209998</v>
+        <v>0.30778174802583003</v>
       </c>
       <c r="D92" s="40">
-        <v>0.14061194775404001</v>
+        <v>0.14060517761255001</v>
       </c>
       <c r="E92" s="41">
-        <v>1.65460813040528</v>
+        <v>1.65738785692054</v>
       </c>
       <c r="F92" s="40">
         <v>17.156271763174999</v>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="41">
-        <v>0.96979394768336002</v>
+        <v>0.96646767838839998</v>
       </c>
       <c r="F93" s="40">
         <v>9.0837104965968205</v>
@@ -5948,13 +5948,13 @@
         <v>164</v>
       </c>
       <c r="C94" s="40">
-        <v>0.47010243596631002</v>
+        <v>0.47485830524744999</v>
       </c>
       <c r="D94" s="40">
-        <v>9.1109220641020006E-2</v>
+        <v>9.0686117353780002E-2</v>
       </c>
       <c r="E94" s="41">
-        <v>1.30199417013772</v>
+        <v>1.3119703748365401</v>
       </c>
       <c r="F94" s="40">
         <v>2.90325866708636</v>
@@ -5998,13 +5998,13 @@
         <v>165</v>
       </c>
       <c r="C95" s="40">
-        <v>0.68095690557887001</v>
+        <v>0.68471245342209996</v>
       </c>
       <c r="D95" s="40">
-        <v>0.19275199619603001</v>
+        <v>0.19222733364474001</v>
       </c>
       <c r="E95" s="41">
-        <v>5.0038744239894504</v>
+        <v>5.0090450209567798</v>
       </c>
       <c r="F95" s="40">
         <v>25.084643447197902</v>
@@ -6048,13 +6048,13 @@
         <v>166</v>
       </c>
       <c r="C96" s="43">
-        <v>6.8562740893626799</v>
+        <v>6.8454985961850801</v>
       </c>
       <c r="D96" s="43">
-        <v>1.0398483236542599</v>
+        <v>1.0424452023150601</v>
       </c>
       <c r="E96" s="44">
-        <v>10.4700883547237</v>
+        <v>10.461663234768</v>
       </c>
       <c r="F96" s="43">
         <v>12.205650595581799</v>
@@ -6098,13 +6098,13 @@
         <v>167</v>
       </c>
       <c r="C97" s="40">
-        <v>6.4999533688117301</v>
+        <v>6.4939083086180904</v>
       </c>
       <c r="D97" s="40">
-        <v>0.26417319193508998</v>
+        <v>0.26345531582738002</v>
       </c>
       <c r="E97" s="41">
-        <v>9.4396309561409506</v>
+        <v>9.4327010113514103</v>
       </c>
       <c r="F97" s="40">
         <v>22.6681774850416</v>
@@ -6148,13 +6148,13 @@
         <v>168</v>
       </c>
       <c r="C98" s="40">
-        <v>5.9222000351960302</v>
+        <v>5.6982155951968299</v>
       </c>
       <c r="D98" s="40">
-        <v>0.12214934692326999</v>
+        <v>0.11983896057817001</v>
       </c>
       <c r="E98" s="41">
-        <v>6.9427470990715703</v>
+        <v>6.7051665232767697</v>
       </c>
       <c r="F98" s="40">
         <v>12.6057627956995</v>
@@ -6198,13 +6198,13 @@
         <v>169</v>
       </c>
       <c r="C99" s="43">
-        <v>21.077551688809301</v>
+        <v>21.0021688369151</v>
       </c>
       <c r="D99" s="43">
-        <v>0.30164784800955002</v>
+        <v>0.30032705968755002</v>
       </c>
       <c r="E99" s="44">
-        <v>22.980343903421598</v>
+        <v>22.9066097067589</v>
       </c>
       <c r="F99" s="43">
         <v>11.2223996667572</v>

--- a/AfDD_2022_Annex_Table_Tab10.xlsx
+++ b/AfDD_2022_Annex_Table_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab10.xlsx
+++ b/AfDD_2022_Annex_Table_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
     <t>Source: International Labour Organisation (retrieved 14/11/2021), United Nations Statistics Division National Accounts (Analysis of Main Aggregates dataset uploaded in December 2020), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -22/04/2022).</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
@@ -5719,7 +5719,7 @@
         <v>13.738971559671601</v>
       </c>
       <c r="J89" s="40">
-        <v>5.9570933688534602</v>
+        <v>5.95709336885347</v>
       </c>
       <c r="K89" s="41">
         <v>37.459564058028398</v>
@@ -6320,7 +6320,7 @@
     <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
     <hyperlink ref="B114" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5"/>
+    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" fitToHeight="0" orientation="portrait" r:id="rId6"/>
